--- a/data/FinalPathResults.xlsx
+++ b/data/FinalPathResults.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="10160" windowWidth="24580" windowHeight="5780" tabRatio="500"/>
+    <workbookView xWindow="8500" yWindow="0" windowWidth="13940" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PathResults" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2000"/>
-              <a:t>Population Stadium Path</a:t>
+              <a:t>Stadium Path</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="2000" baseline="0"/>
@@ -18486,11 +18486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1961743384"/>
-        <c:axId val="1960918376"/>
+        <c:axId val="2021561896"/>
+        <c:axId val="2021567448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1961743384"/>
+        <c:axId val="2021561896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18529,7 +18529,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1960918376"/>
+        <c:crossAx val="2021567448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18539,7 +18539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1960918376"/>
+        <c:axId val="2021567448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35000.0"/>
@@ -18563,7 +18563,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0"/>
-                  <a:t> Distance</a:t>
+                  <a:t> Distance (Miles)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600"/>
               </a:p>
@@ -18586,7 +18586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961743384"/>
+        <c:crossAx val="2021561896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18641,7 +18641,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8583839" cy="5839732"/>
+    <xdr:ext cx="8572500" cy="5829300"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -18990,7 +18990,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
